--- a/biology/Histoire de la zoologie et de la botanique/Jens-Hermann_Stuke/Jens-Hermann_Stuke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jens-Hermann_Stuke/Jens-Hermann_Stuke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jens-Hermann Stuke est un entomologiste allemand né en 1967 œuvrant à l'Université de Brême. Spécialisé dans la famille des Conopidae, il est une référence mondiale dans ce domaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jens-Hermann Stuke est un entomologiste allemand né en 1967 œuvrant à l'Université de Brême. Spécialisé dans la famille des Conopidae, il est une référence mondiale dans ce domaine.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1988, ses recherches ont pour objet les diptères et portent sur la taxonomie, la morphologie, la faunistique et l'écologie de ces insectes. Depuis 1995, il a publié plus de 200 études principalement à propos des Conopidae et Syrphidae de toutes les biorégions, décrivant plus de 80 nouveaux taxons[2],[1].
-Stuke est l'un des contributeurs contemporains de l'une des plus grandes collections entomologiques située au Musée d'outre-mer (de) de Brême. Initiée par Adam Heinrich Norwich au début du XIXe siècle, elle comprend plus de 4 000 espèces d'insectes (essentiellement hyménoptères, coléoptères et lépidoptères) incluant plus de 1 000 types et provenant de toutes les écozones[3].
-En 2017, il publie une révision complète de la famille Conopidae, s'inscrivant ainsi dans une vaste entreprise, mise en œuvre par les Éditions Brill, de cataloguer les insectes du monde entier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1988, ses recherches ont pour objet les diptères et portent sur la taxonomie, la morphologie, la faunistique et l'écologie de ces insectes. Depuis 1995, il a publié plus de 200 études principalement à propos des Conopidae et Syrphidae de toutes les biorégions, décrivant plus de 80 nouveaux taxons,.
+Stuke est l'un des contributeurs contemporains de l'une des plus grandes collections entomologiques située au Musée d'outre-mer (de) de Brême. Initiée par Adam Heinrich Norwich au début du XIXe siècle, elle comprend plus de 4 000 espèces d'insectes (essentiellement hyménoptères, coléoptères et lépidoptères) incluant plus de 1 000 types et provenant de toutes les écozones.
+En 2017, il publie une révision complète de la famille Conopidae, s'inscrivant ainsi dans une vaste entreprise, mise en œuvre par les Éditions Brill, de cataloguer les insectes du monde entier.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Jens-Hermann Stuke, Conopidae (Diptera) World Catalogue of Insects, Volume : 15, Leiden/Boston (Mass.), Brill, janvier 2017, 354 p. (ISBN 978-90-04-27183-8, DOI 10.1163/9789004271845)
 (de) Liste exhaustive des publications et espèces décrites de J.H. Stuke sur son site internet personnel : conopidae.com</t>
